--- a/financial_files/excel/CSCO.xlsx
+++ b/financial_files/excel/CSCO.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data" ref="A1:O115" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data_scraped" ref="A1:O115" headerRowCount="1">
   <autoFilter ref="A1:O115"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Category"/>

--- a/financial_files/excel/CSCO.xlsx
+++ b/financial_files/excel/CSCO.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_statement_api" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rule1_results" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -156,6 +158,47 @@
     <tableColumn id="13" name="2019"/>
     <tableColumn id="14" name="2020"/>
     <tableColumn id="15" name="TTM"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="financial_statement_api" displayName="financial_statement_api" ref="A1:U23" headerRowCount="1">
+  <autoFilter ref="A1:U23"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="API Parameter"/>
+    <tableColumn id="2" name="2001"/>
+    <tableColumn id="3" name="2002"/>
+    <tableColumn id="4" name="2003"/>
+    <tableColumn id="5" name="2004"/>
+    <tableColumn id="6" name="2005"/>
+    <tableColumn id="7" name="2006"/>
+    <tableColumn id="8" name="2007"/>
+    <tableColumn id="9" name="2008"/>
+    <tableColumn id="10" name="2009"/>
+    <tableColumn id="11" name="2010"/>
+    <tableColumn id="12" name="2011"/>
+    <tableColumn id="13" name="2012"/>
+    <tableColumn id="14" name="2013"/>
+    <tableColumn id="15" name="2014"/>
+    <tableColumn id="16" name="2015"/>
+    <tableColumn id="17" name="2016"/>
+    <tableColumn id="18" name="2017"/>
+    <tableColumn id="19" name="2018"/>
+    <tableColumn id="20" name="2019"/>
+    <tableColumn id="21" name="2020"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="rule1_results" displayName="rule1_results" ref="A1:B55" headerRowCount="1">
+  <autoFilter ref="A1:B55"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Rule #1 Metric"/>
+    <tableColumn id="2" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6824,4 +6867,2255 @@
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>API Parameter</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>22293000000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>18915000000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18878000000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>22045000000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>24801000000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>28484000000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>34922000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>39540000000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>36117000000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>40040000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>43218000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46061000000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>48607000000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>47142000000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>49161000000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>49247000000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>48005000000</v>
+      </c>
+      <c r="S2" t="n">
+        <v>49330000000</v>
+      </c>
+      <c r="T2" t="n">
+        <v>51904000000</v>
+      </c>
+      <c r="U2" t="n">
+        <v>49301000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>operating_income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-834000000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2919000000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4882000000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6292000000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7416000000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6996000000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8621000000</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9442000000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7322000000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9164000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>8473000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>10369000000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>11301000000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>9763000000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>11254000000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>12928000000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>12729000000</v>
+      </c>
+      <c r="S3" t="n">
+        <v>12667000000</v>
+      </c>
+      <c r="T3" t="n">
+        <v>14541000000</v>
+      </c>
+      <c r="U3" t="n">
+        <v>14101000000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pretax_income</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-874000000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2710000000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5013000000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6992000000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8036000000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7633000000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9461000000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10255000000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7693000000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9415000000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7825000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>10159000000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>11227000000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>9715000000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>11201000000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>12920000000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>12287000000</v>
+      </c>
+      <c r="S4" t="n">
+        <v>13039000000</v>
+      </c>
+      <c r="T4" t="n">
+        <v>14571000000</v>
+      </c>
+      <c r="U4" t="n">
+        <v>13970000000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>income_tax</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-140000000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-817000000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1435000000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-2024000000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-2295000000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-2053000000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-2128000000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-2203000000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-1559000000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-1648000000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-1335000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-2118000000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-1244000000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-1862000000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-2220000000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-2181000000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-2678000000</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-12929000000</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-2950000000</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-2756000000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>eps_diluted</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>shares_diluted</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7196000000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7447000000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7223000000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7057000000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6612000000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6272000000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6265000000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6163000000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5857000000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5848000000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5563000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5404000000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5380000000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5281000000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5146000000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5088000000</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5049000000</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4881000000</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4453000000</v>
+      </c>
+      <c r="U7" t="n">
+        <v>4254000000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>total_assets</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>35238000000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>37795000000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>37107000000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>35594000000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33883000000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>43315000000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>53340000000</v>
+      </c>
+      <c r="I8" t="n">
+        <v>58734000000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>68128000000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>81130000000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>87095000000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>91759000000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>101191000000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>105070000000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>113373000000</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>121652000000</v>
+      </c>
+      <c r="R8" t="n">
+        <v>129818000000</v>
+      </c>
+      <c r="S8" t="n">
+        <v>108784000000</v>
+      </c>
+      <c r="T8" t="n">
+        <v>97793000000</v>
+      </c>
+      <c r="U8" t="n">
+        <v>94853000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>st_debt</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>500000000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3096000000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>588000000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>31000000</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3283000000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>508000000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3897000000</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4160000000</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7992000000</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5238000000</v>
+      </c>
+      <c r="T9" t="n">
+        <v>10191000000</v>
+      </c>
+      <c r="U9" t="n">
+        <v>3005000000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lt_debt</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6332000000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6408000000</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6393000000</v>
+      </c>
+      <c r="J10" t="n">
+        <v>10295000000</v>
+      </c>
+      <c r="K10" t="n">
+        <v>12188000000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>16234000000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>16297000000</v>
+      </c>
+      <c r="N10" t="n">
+        <v>12928000000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>20337000000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>21457000000</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>24483000000</v>
+      </c>
+      <c r="R10" t="n">
+        <v>25725000000</v>
+      </c>
+      <c r="S10" t="n">
+        <v>20331000000</v>
+      </c>
+      <c r="T10" t="n">
+        <v>14475000000</v>
+      </c>
+      <c r="U10" t="n">
+        <v>11578000000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>total_equity</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>27142000000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>28671000000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>28039000000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>25916000000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>23184000000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>23918000000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>31490000000</v>
+      </c>
+      <c r="I11" t="n">
+        <v>34402000000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>38677000000</v>
+      </c>
+      <c r="K11" t="n">
+        <v>44285000000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>47259000000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>51301000000</v>
+      </c>
+      <c r="N11" t="n">
+        <v>59128000000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>56661000000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>59707000000</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>63585000000</v>
+      </c>
+      <c r="R11" t="n">
+        <v>66137000000</v>
+      </c>
+      <c r="S11" t="n">
+        <v>43204000000</v>
+      </c>
+      <c r="T11" t="n">
+        <v>33571000000</v>
+      </c>
+      <c r="U11" t="n">
+        <v>37920000000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cf_cfo</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6392000000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6587000000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5319000000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6962000000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7568000000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7899000000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10104000000</v>
+      </c>
+      <c r="I12" t="n">
+        <v>12089000000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>9897000000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>10173000000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>10079000000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>11491000000</v>
+      </c>
+      <c r="N12" t="n">
+        <v>12894000000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>12332000000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>12552000000</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>13570000000</v>
+      </c>
+      <c r="R12" t="n">
+        <v>13876000000</v>
+      </c>
+      <c r="S12" t="n">
+        <v>13666000000</v>
+      </c>
+      <c r="T12" t="n">
+        <v>15831000000</v>
+      </c>
+      <c r="U12" t="n">
+        <v>15426000000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>cfi_ppe_net</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-2271000000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20015000000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-717000000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-613000000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-692000000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-772000000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-1251000000</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-1268000000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-1005000000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-1008000000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-1174000000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-1076000000</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-1019000000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-1043000000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-1205000000</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-1105000000</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-957000000</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-775000000</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-887000000</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-591000000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>roic</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.0454</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0912</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1651</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1896</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2818</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.2457</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.2398</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2289</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.1544</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.1164</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.1407</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.1593</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.1136</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.1205</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.1319</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.1112</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.2185</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.2572</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>revenue_growth</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1777</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.1515</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.0019</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1677</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1322</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.08649999999999999</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1086</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0793</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.06569999999999999</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0552</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.0301</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.0428</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-0.0252</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.0276</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.0521</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-0.0501</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>eps_diluted_growth</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-1.3888</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.7857</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.4032</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0229</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.3146</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1196</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.1984</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.2666</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.1203</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.2735</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.2483</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-0.1989</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.1744</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.2057</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-0.09950000000000001</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-0.9893999999999999</v>
+      </c>
+      <c r="T16" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.0114</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>total_equity_growth</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0226</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0563</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.022</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.0757</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.1054</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0316</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.3165</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0924</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.1242</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.1449</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.06710000000000001</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.08550000000000001</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.1525</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-0.0417</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.0537</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.0649</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.0401</v>
+      </c>
+      <c r="S17" t="n">
+        <v>-0.3467</v>
+      </c>
+      <c r="T17" t="n">
+        <v>-0.2229</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.1295</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>cfo_growth</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0408</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0305</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.1925</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.3088</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0437</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.2791</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1964</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.1813</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0278</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.0092</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.0435</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.0178</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.08110000000000001</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.0225</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-0.0151</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.1584</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.0255</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>fcf_growth</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.1847</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5.4552</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.827</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.3796</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0365</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.2421</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.2222</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.1782</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0307</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.0283</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.1695</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.1401</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-0.0493</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.0051</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.0985</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.0364</v>
+      </c>
+      <c r="S19" t="n">
+        <v>-0.0021</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.1592</v>
+      </c>
+      <c r="U19" t="n">
+        <v>-0.0072</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>fcf</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4121000000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>26602000000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4602000000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6349000000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6876000000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7127000000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>8853000000</v>
+      </c>
+      <c r="I20" t="n">
+        <v>10821000000</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8892000000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>9165000000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8905000000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>10415000000</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11875000000</v>
+      </c>
+      <c r="O20" t="n">
+        <v>11289000000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>11347000000</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>12465000000</v>
+      </c>
+      <c r="R20" t="n">
+        <v>12919000000</v>
+      </c>
+      <c r="S20" t="n">
+        <v>12891000000</v>
+      </c>
+      <c r="T20" t="n">
+        <v>14944000000</v>
+      </c>
+      <c r="U20" t="n">
+        <v>14835000000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>book_value_per_share</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3.7718</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.8819</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.6723</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3.5063</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.8134</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5.0263</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.582</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6.6035</v>
+      </c>
+      <c r="K21" t="n">
+        <v>7.5726</v>
+      </c>
+      <c r="L21" t="n">
+        <v>8.495200000000001</v>
+      </c>
+      <c r="M21" t="n">
+        <v>9.4931</v>
+      </c>
+      <c r="N21" t="n">
+        <v>10.9903</v>
+      </c>
+      <c r="O21" t="n">
+        <v>10.7292</v>
+      </c>
+      <c r="P21" t="n">
+        <v>11.6026</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>12.497</v>
+      </c>
+      <c r="R21" t="n">
+        <v>13.099</v>
+      </c>
+      <c r="S21" t="n">
+        <v>8.8514</v>
+      </c>
+      <c r="T21" t="n">
+        <v>7.5389</v>
+      </c>
+      <c r="U21" t="n">
+        <v>8.9139</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>market_cap</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>140767280000</v>
+      </c>
+      <c r="C22" t="n">
+        <v>96326570000</v>
+      </c>
+      <c r="D22" t="n">
+        <v>136391020000</v>
+      </c>
+      <c r="E22" t="n">
+        <v>140896200000</v>
+      </c>
+      <c r="F22" t="n">
+        <v>121238650000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>108334920000</v>
+      </c>
+      <c r="H22" t="n">
+        <v>176351000000</v>
+      </c>
+      <c r="I22" t="n">
+        <v>129587070000</v>
+      </c>
+      <c r="J22" t="n">
+        <v>127327850000</v>
+      </c>
+      <c r="K22" t="n">
+        <v>130460850000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>86796950000</v>
+      </c>
+      <c r="M22" t="n">
+        <v>84503100000</v>
+      </c>
+      <c r="N22" t="n">
+        <v>137904510000</v>
+      </c>
+      <c r="O22" t="n">
+        <v>128849610000</v>
+      </c>
+      <c r="P22" t="n">
+        <v>144515700000</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>153535370000</v>
+      </c>
+      <c r="R22" t="n">
+        <v>156715350000</v>
+      </c>
+      <c r="S22" t="n">
+        <v>195126060000</v>
+      </c>
+      <c r="T22" t="n">
+        <v>235450000000</v>
+      </c>
+      <c r="U22" t="n">
+        <v>199562700000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>price_to_earnings</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-138.8237</v>
+      </c>
+      <c r="C23" t="n">
+        <v>50.8856</v>
+      </c>
+      <c r="D23" t="n">
+        <v>38.1193</v>
+      </c>
+      <c r="E23" t="n">
+        <v>32.0145</v>
+      </c>
+      <c r="F23" t="n">
+        <v>21.118</v>
+      </c>
+      <c r="G23" t="n">
+        <v>19.4148</v>
+      </c>
+      <c r="H23" t="n">
+        <v>24.0489</v>
+      </c>
+      <c r="I23" t="n">
+        <v>16.0937</v>
+      </c>
+      <c r="J23" t="n">
+        <v>20.7577</v>
+      </c>
+      <c r="K23" t="n">
+        <v>16.7968</v>
+      </c>
+      <c r="L23" t="n">
+        <v>13.3739</v>
+      </c>
+      <c r="M23" t="n">
+        <v>10.509</v>
+      </c>
+      <c r="N23" t="n">
+        <v>13.8139</v>
+      </c>
+      <c r="O23" t="n">
+        <v>16.4076</v>
+      </c>
+      <c r="P23" t="n">
+        <v>16.0912</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>14.2969</v>
+      </c>
+      <c r="R23" t="n">
+        <v>16.3092</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1773.8732</v>
+      </c>
+      <c r="T23" t="n">
+        <v>20.2607</v>
+      </c>
+      <c r="U23" t="n">
+        <v>17.7958</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Rule #1 Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ROIC - 10-year</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>12.05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ROIC - 5-year</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>12.65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ROIC - 3-year</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>13.88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ROIC - 1-year</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>21.56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 10-year</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>13.71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 5-year</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>14.40%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 3-year</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>15.90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 1-year</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>25.72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1.64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-5.14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>-12.04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>18.24%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>7.10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>8.57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>11.59%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1.15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2.10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0.06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0.89%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>-5.02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>4.93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>5.51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>4.72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>-0.73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>4.25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>4.21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3.59%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>-2.56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Debt - Current Long-Term Debt</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>11578000000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Debt - Payoff Possible</t>
+        </is>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>current_eps</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2.469999979210646</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>analyst_growth_rate</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.0614</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>equity_growth_rate</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.006763325580387697</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>eps_growth_rate</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.006763325580387697</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>future_eps</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2.642231198587605</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>average_historical_pe</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>191.27314</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>default_pe</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1.352665116077539</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>future_pe</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1.352665116077539</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>future_market_price</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>3.574053970941199</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>sticker_price</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.883451480470788</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>margin_of_safety</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.441725740235394</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>shortName</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Cisco Systems, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>us_market</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>exchange</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>NMS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Communication Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>http://www.cisco.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>marketCap</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>185753403392</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>22696103</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>forwardPE</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>13.044511</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>previousClose</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>44.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>